--- a/SHE COURSES.xlsx
+++ b/SHE COURSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfari\Documents\Python Codes\SHE Course Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1C53B9-5EA2-4447-811F-A9C85F24DEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C75480-75C7-4E1C-8B45-9E010A37F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SHE COURSES.xlsx
+++ b/SHE COURSES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfari\Documents\Python Codes\SHE Course Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C75480-75C7-4E1C-8B45-9E010A37F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0E0EC-7354-4A48-AFC7-8F338298AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="187">
   <si>
     <t>FACULTY</t>
   </si>
@@ -46,27 +46,12 @@
     <t>PHYSICAL</t>
   </si>
   <si>
-    <t>GBI0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hadith and Life  </t>
-  </si>
-  <si>
-    <t>NOT FOUND</t>
-  </si>
-  <si>
     <t>GBI0013</t>
   </si>
   <si>
     <t xml:space="preserve">Islam and Science   </t>
   </si>
   <si>
-    <t>GBI0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quran and Civilization   </t>
-  </si>
-  <si>
     <t xml:space="preserve">FBL   </t>
   </si>
   <si>
@@ -82,24 +67,12 @@
     <t>FEP</t>
   </si>
   <si>
-    <t>GBE0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economics 123 </t>
-  </si>
-  <si>
     <t>GBE0015</t>
   </si>
   <si>
     <t xml:space="preserve">Seeing the World like an Economist   </t>
   </si>
   <si>
-    <t>GBE0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philosophy, Religion and Spiritual Life   </t>
-  </si>
-  <si>
     <t xml:space="preserve">FPP   </t>
   </si>
   <si>
@@ -115,12 +88,6 @@
     <t xml:space="preserve">Cukai Pendapatan Peribadi   </t>
   </si>
   <si>
-    <t>GBC0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tourism as a Business   </t>
-  </si>
-  <si>
     <t>GBC0005</t>
   </si>
   <si>
@@ -145,18 +112,6 @@
     <t xml:space="preserve">Appreciating Literature   </t>
   </si>
   <si>
-    <t>GBA0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Overview of European Civilisation   </t>
-  </si>
-  <si>
-    <t>GBA0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Literacy for Student Success  </t>
-  </si>
-  <si>
     <t xml:space="preserve">FS   </t>
   </si>
   <si>
@@ -202,30 +157,12 @@
     <t xml:space="preserve">Introduction to Social Entrepreneurship </t>
   </si>
   <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
     <t>GBX0011</t>
   </si>
   <si>
     <t xml:space="preserve">STEM Education Management   </t>
   </si>
   <si>
-    <t>Ungku Aziz</t>
-  </si>
-  <si>
-    <t>GBX0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining the Millionaire Mind   </t>
-  </si>
-  <si>
-    <t>GBX0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rethinking Development Ideas   </t>
-  </si>
-  <si>
     <t>REGISTERED</t>
   </si>
   <si>
@@ -250,12 +187,6 @@
     <t>Strengthening of Islamic Creed</t>
   </si>
   <si>
-    <t>GDI0002</t>
-  </si>
-  <si>
-    <t>Basic of Islamic Psychospiritual</t>
-  </si>
-  <si>
     <t>GDI0003</t>
   </si>
   <si>
@@ -280,48 +211,15 @@
     <t>Psychology Positive in Daily Life</t>
   </si>
   <si>
-    <t>GDR0008</t>
-  </si>
-  <si>
-    <t>Music Moves</t>
-  </si>
-  <si>
-    <t>GDR0009</t>
-  </si>
-  <si>
-    <t>Mindfulness through Music</t>
-  </si>
-  <si>
     <t>GDR0010</t>
   </si>
   <si>
     <t>Dance in the World</t>
   </si>
   <si>
-    <t>PSSE</t>
-  </si>
-  <si>
-    <t>GDV0011</t>
-  </si>
-  <si>
-    <t>Wellness, Fitness and Nutrition</t>
-  </si>
-  <si>
-    <t>GDV0012</t>
-  </si>
-  <si>
-    <t>Exercise and Active Living</t>
-  </si>
-  <si>
     <t>PHARMACY</t>
   </si>
   <si>
-    <t>GDO0013</t>
-  </si>
-  <si>
-    <t>Tobacco and Smoking Cessation Programme</t>
-  </si>
-  <si>
     <t>GDP0014</t>
   </si>
   <si>
@@ -337,24 +235,6 @@
     <t>Appreciation of Harmony Singing</t>
   </si>
   <si>
-    <t>FOD</t>
-  </si>
-  <si>
-    <t>GDD0004</t>
-  </si>
-  <si>
-    <t>Dental Health</t>
-  </si>
-  <si>
-    <t>FBL</t>
-  </si>
-  <si>
-    <t>GFT0006</t>
-  </si>
-  <si>
-    <t>Technology in Language Learning</t>
-  </si>
-  <si>
     <t>GFE0007</t>
   </si>
   <si>
@@ -364,12 +244,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>GFK0008</t>
-  </si>
-  <si>
-    <t>Electrical and Electronics Technologies for the Non-Engineer</t>
-  </si>
-  <si>
     <t>FEDU</t>
   </si>
   <si>
@@ -391,15 +265,6 @@
     <t>Responsible Digital Citizenship</t>
   </si>
   <si>
-    <t>FPP</t>
-  </si>
-  <si>
-    <t>GFC0012</t>
-  </si>
-  <si>
-    <t>Digital Business</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
@@ -424,24 +289,6 @@
     <t>Computational Thinking with Robotics</t>
   </si>
   <si>
-    <t>GFW0003</t>
-  </si>
-  <si>
-    <t>Data Analytics for Digital Community</t>
-  </si>
-  <si>
-    <t>GFW0016</t>
-  </si>
-  <si>
-    <t>Cinematography 101</t>
-  </si>
-  <si>
-    <t>GFW0002</t>
-  </si>
-  <si>
-    <t>Computational Thinking</t>
-  </si>
-  <si>
     <t>GFW0017</t>
   </si>
   <si>
@@ -454,42 +301,6 @@
     <t>Security and Ethics in Cyberspace</t>
   </si>
   <si>
-    <t>GFW0001</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence for Everyone</t>
-  </si>
-  <si>
-    <t>GFW0021</t>
-  </si>
-  <si>
-    <t>Microsoft Office Specialist: Excel Associate</t>
-  </si>
-  <si>
-    <t>GFW0022</t>
-  </si>
-  <si>
-    <t>Microsoft Office Specialist: Microsoft Excel Expert</t>
-  </si>
-  <si>
-    <t>GFW0023</t>
-  </si>
-  <si>
-    <t>Microsoft Office Specialist: Word Expert</t>
-  </si>
-  <si>
-    <t>GFW0024</t>
-  </si>
-  <si>
-    <t>Microsoft Office Specialist: Powerpoint Associate</t>
-  </si>
-  <si>
-    <t>GFW0025</t>
-  </si>
-  <si>
-    <t>Microsoft Office Specialist: Word Associate</t>
-  </si>
-  <si>
     <t>FUU</t>
   </si>
   <si>
@@ -505,18 +316,6 @@
     <t>Digital Video Production for Web</t>
   </si>
   <si>
-    <t>CITRA</t>
-  </si>
-  <si>
-    <t>GFX0020</t>
-  </si>
-  <si>
-    <t>Basic Digital Graphics</t>
-  </si>
-  <si>
-    <t>Digital Photography</t>
-  </si>
-  <si>
     <t>FLL</t>
   </si>
   <si>
@@ -734,13 +533,61 @@
   </si>
   <si>
     <t>Energy, Environment, and Society</t>
+  </si>
+  <si>
+    <t>GBB0031</t>
+  </si>
+  <si>
+    <t>DESIGN THINKING</t>
+  </si>
+  <si>
+    <t>GBO0032</t>
+  </si>
+  <si>
+    <t>Medicines and Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBS0025 </t>
+  </si>
+  <si>
+    <t>CHEMISTRY IN EVERYDAY LIFE</t>
+  </si>
+  <si>
+    <t>BASIC STATISTICS</t>
+  </si>
+  <si>
+    <t>GBS0028</t>
+  </si>
+  <si>
+    <t>GBS0030</t>
+  </si>
+  <si>
+    <t>Philosophy of Science</t>
+  </si>
+  <si>
+    <t>GFK0026</t>
+  </si>
+  <si>
+    <t>ASSISTIVE &amp; REHABILITATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>GFK0027</t>
+  </si>
+  <si>
+    <t>Introduction to Biomedical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFW0031 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Networks for Everybody Computer Network for Everybody </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -765,6 +612,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -834,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -854,7 +706,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -876,6 +727,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,21 +948,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1011"/>
+  <dimension ref="A1:H990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1118,23 +973,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1144,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1160,7 +1015,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1170,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1186,7 +1041,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1196,39 +1051,39 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1238,23 +1093,23 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1264,72 +1119,72 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-1</v>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
+      <c r="A9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
         <v>6</v>
@@ -1342,101 +1197,101 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2">
-        <v>6</v>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-1</v>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
-        <v>40</v>
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1446,260 +1301,260 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>19</v>
+      <c r="A14" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>29</v>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
-        <v>30</v>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1</v>
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
+      <c r="A19" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1">
-        <v>34</v>
+      <c r="C21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18">
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>-1</v>
+      <c r="D22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1</v>
+      <c r="A23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1707,21 +1562,21 @@
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2">
+        <v>39</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18">
         <v>5</v>
       </c>
       <c r="G24">
@@ -1732,22 +1587,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="18">
         <v>5</v>
       </c>
       <c r="G25">
@@ -1758,23 +1613,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>48</v>
+      <c r="A26" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1783,27 +1638,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>51</v>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1811,22 +1666,22 @@
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F28" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -1836,23 +1691,23 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
+      <c r="A29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -1862,49 +1717,49 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
+      <c r="A30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
+    <row r="31" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1913,157 +1768,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="D34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="D35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>4</v>
+      <c r="A37" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="9">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2071,21 +1926,21 @@
     </row>
     <row r="38" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38">
         <v>5</v>
       </c>
       <c r="G38">
@@ -2095,388 +1950,388 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="D44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="9">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="C45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="D45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="9">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="D46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="C47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9</v>
+      </c>
+      <c r="G49">
         <v>10</v>
       </c>
-      <c r="F41" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G42">
-        <v>-1</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="9">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <v>20</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G44">
-        <v>-1</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G45">
-        <v>-1</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G46">
-        <v>-1</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47">
-        <v>-1</v>
-      </c>
-      <c r="G47">
-        <v>40</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48">
-        <v>-1</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G49">
-        <v>-1</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="9">
-        <v>-1</v>
+      <c r="F50" s="3">
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="9">
-        <v>39</v>
+      <c r="A51" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>113</v>
+      <c r="A52" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="9">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>116</v>
+      <c r="A53" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="9">
-        <v>2</v>
+      <c r="F53" s="3">
+        <v>29</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -2485,622 +2340,622 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>116</v>
+    <row r="54" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="9">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="3">
+        <v>39</v>
+      </c>
+      <c r="G68">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C72" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>45</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="9">
-        <v>14</v>
-      </c>
-      <c r="G55">
-        <v>40</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="C73" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="D73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="D74" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C75" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="9">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>5</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="C76" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="9">
-        <v>5</v>
-      </c>
-      <c r="G58">
-        <v>5</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="9">
-        <v>19</v>
-      </c>
-      <c r="G59">
-        <v>30</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G60">
-        <v>-1</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G61">
-        <v>-1</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G62">
-        <v>-1</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="9">
-        <v>9</v>
-      </c>
-      <c r="G63">
-        <v>30</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="9">
-        <v>9</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="9">
-        <v>5</v>
-      </c>
-      <c r="G65">
-        <v>5</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G66">
-        <v>-1</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G67">
-        <v>-1</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G68">
-        <v>-1</v>
-      </c>
-      <c r="H68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G69">
-        <v>-1</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G70">
-        <v>-1</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G71">
-        <v>-1</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="9">
-        <v>5</v>
-      </c>
-      <c r="G72">
-        <v>5</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>5</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G74">
-        <v>30</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G75">
-        <v>-1</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="D76" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="9">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>72</v>
+        <v>120</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="9">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -3111,25 +2966,25 @@
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>72</v>
+        <v>131</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="9">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>31</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -3137,22 +2992,22 @@
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>72</v>
+        <v>131</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="9">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -3163,22 +3018,22 @@
     </row>
     <row r="80" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>71</v>
+        <v>131</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="9">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -3189,25 +3044,25 @@
     </row>
     <row r="81" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H81">
         <v>4</v>
@@ -3215,25 +3070,25 @@
     </row>
     <row r="82" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -3241,48 +3096,48 @@
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>165</v>
+      <c r="A84" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
       </c>
       <c r="G84">
         <v>5</v>
@@ -3292,23 +3147,23 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>165</v>
+      <c r="A85" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
       </c>
       <c r="G85">
         <v>5</v>
@@ -3319,22 +3174,22 @@
     </row>
     <row r="86" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -3345,22 +3200,22 @@
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -3371,25 +3226,25 @@
     </row>
     <row r="88" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="9">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
       </c>
       <c r="G88">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -3397,25 +3252,25 @@
     </row>
     <row r="89" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="9">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>4</v>
@@ -3423,25 +3278,25 @@
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="9">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -3449,21 +3304,21 @@
     </row>
     <row r="91" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91">
         <v>5</v>
       </c>
       <c r="G91">
@@ -3475,22 +3330,22 @@
     </row>
     <row r="92" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="9">
-        <v>2</v>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -3501,25 +3356,25 @@
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="9">
-        <v>0</v>
+      <c r="F93">
+        <v>12</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -3527,614 +3382,61 @@
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="9">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
-      </c>
-      <c r="H95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="9">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>5</v>
-      </c>
-      <c r="H96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="9">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>5</v>
-      </c>
-      <c r="H97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="9">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="H98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>5</v>
-      </c>
-      <c r="H99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100">
-        <v>31</v>
-      </c>
-      <c r="G100">
-        <v>60</v>
-      </c>
-      <c r="H100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>5</v>
-      </c>
-      <c r="H101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102">
-        <v>5</v>
-      </c>
-      <c r="G102">
-        <v>5</v>
-      </c>
-      <c r="H102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103">
-        <v>15</v>
-      </c>
-      <c r="G103">
-        <v>40</v>
-      </c>
-      <c r="H103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-      <c r="G104">
-        <v>40</v>
-      </c>
-      <c r="H104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-      <c r="G105">
-        <v>40</v>
-      </c>
-      <c r="H105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-      <c r="G106">
-        <v>5</v>
-      </c>
-      <c r="H106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
-      <c r="H107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108">
-        <v>5</v>
-      </c>
-      <c r="H108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109">
-        <v>2</v>
-      </c>
-      <c r="G109">
-        <v>5</v>
-      </c>
-      <c r="H109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-      <c r="G110">
-        <v>5</v>
-      </c>
-      <c r="H110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111">
-        <v>4</v>
-      </c>
-      <c r="G111">
-        <v>5</v>
-      </c>
-      <c r="H111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112">
-        <v>2</v>
-      </c>
-      <c r="G112">
-        <v>5</v>
-      </c>
-      <c r="H112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113">
-        <v>5</v>
-      </c>
-      <c r="G113">
-        <v>5</v>
-      </c>
-      <c r="H113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>5</v>
-      </c>
-      <c r="H114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115">
-        <v>12</v>
-      </c>
-      <c r="G115">
-        <v>40</v>
-      </c>
-      <c r="H115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116">
-        <v>10</v>
-      </c>
-      <c r="G116">
-        <v>40</v>
-      </c>
-      <c r="H116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -4997,28 +4299,8 @@
     <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SHE COURSES.xlsx
+++ b/SHE COURSES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfari\Documents\Python Codes\SHE Course Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0E0EC-7354-4A48-AFC7-8F338298AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0147733-58A8-44E4-8865-29B1073EE616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster 1" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -727,7 +727,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -951,8 +950,8 @@
   <dimension ref="A1:H990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1486,19 +1485,19 @@
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="17">
         <v>5</v>
       </c>
       <c r="G21">
@@ -1512,19 +1511,19 @@
       <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="E22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17">
         <v>5</v>
       </c>
       <c r="G22">
@@ -1538,19 +1537,19 @@
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="E23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="17">
         <v>5</v>
       </c>
       <c r="G23">
@@ -1564,19 +1563,19 @@
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="17">
         <v>5</v>
       </c>
       <c r="G24">
@@ -1590,19 +1589,19 @@
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <v>5</v>
       </c>
       <c r="G25">
@@ -1694,7 +1693,7 @@
       <c r="A29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1720,7 +1719,7 @@
       <c r="A30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1746,7 +1745,7 @@
       <c r="A31" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1902,16 +1901,16 @@
       <c r="A37" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F37">
